--- a/nr-update-priorities/ig/StructureDefinition-fr-core-observation-body-weight.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-observation-body-weight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:44:22+00:00</t>
+    <t>2025-12-05T08:48:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-observation-body-weight.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-observation-body-weight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:48:00+00:00</t>
+    <t>2025-12-05T09:22:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-observation-body-weight.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-observation-body-weight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T08:24:40+00:00</t>
+    <t>2025-12-29T09:23:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-observation-body-weight.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-observation-body-weight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:23:18+00:00</t>
+    <t>2025-12-29T09:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-observation-body-weight.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-observation-body-weight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:56:40+00:00</t>
+    <t>2025-12-29T10:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-observation-body-weight.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-observation-body-weight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:13:00+00:00</t>
+    <t>2025-12-29T10:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-observation-body-weight.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-observation-body-weight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:22:56+00:00</t>
+    <t>2025-12-29T10:23:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-observation-body-weight.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-observation-body-weight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:23:39+00:00</t>
+    <t>2025-12-29T10:37:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-observation-body-weight.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-observation-body-weight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:37:03+00:00</t>
+    <t>2025-12-29T10:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-observation-body-weight.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-observation-body-weight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:57:12+00:00</t>
+    <t>2025-12-29T16:37:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-observation-body-weight.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-observation-body-weight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T16:37:53+00:00</t>
+    <t>2025-12-29T16:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-observation-body-weight.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-observation-body-weight.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3600" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3600" uniqueCount="660">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T16:39:07+00:00</t>
+    <t>2025-12-29T16:43:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -118,7 +118,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/bodyweight</t>
+    <t>http://hl7.org/fhir/StructureDefinition/bodyweight|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -488,6 +488,9 @@
     <t>fr-canonical</t>
   </si>
   <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-observation-body-weight|2.2.0-ballot</t>
+  </si>
+  <si>
     <t>Observation.meta.security</t>
   </si>
   <si>
@@ -1172,7 +1175,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1226,7 +1229,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-encounter)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-encounter|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1321,7 +1324,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|RelatedPerson|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|PractitionerRole|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
+    <t xml:space="preserve">Reference(CareTeam|4.0.1|RelatedPerson|4.0.1|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.2.0-ballot|PractitionerRole|4.0.1|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -2416,7 +2419,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="191.30859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="233.41796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3703,7 +3706,7 @@
         <v>83</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>3</v>
+        <v>151</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>83</v>
@@ -3777,10 +3780,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3803,16 +3806,16 @@
         <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3838,13 +3841,13 @@
         <v>83</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>83</v>
@@ -3862,7 +3865,7 @@
         <v>83</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3897,10 +3900,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3923,16 +3926,16 @@
         <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3958,13 +3961,13 @@
         <v>83</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>83</v>
@@ -3982,7 +3985,7 @@
         <v>83</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -4017,10 +4020,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4046,13 +4049,13 @@
         <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -4102,7 +4105,7 @@
         <v>83</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -4137,10 +4140,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4163,16 +4166,16 @@
         <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4198,13 +4201,13 @@
         <v>83</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>83</v>
@@ -4222,7 +4225,7 @@
         <v>83</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -4257,14 +4260,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4283,16 +4286,16 @@
         <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4342,7 +4345,7 @@
         <v>83</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -4366,7 +4369,7 @@
         <v>83</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>83</v>
@@ -4377,14 +4380,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4403,16 +4406,16 @@
         <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4462,7 +4465,7 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -4486,7 +4489,7 @@
         <v>83</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>83</v>
@@ -4497,10 +4500,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4526,10 +4529,10 @@
         <v>115</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4578,7 +4581,7 @@
         <v>121</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4613,13 +4616,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>83</v>
@@ -4641,13 +4644,13 @@
         <v>83</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4698,7 +4701,7 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4733,10 +4736,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4762,16 +4765,16 @@
         <v>115</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>83</v>
@@ -4820,7 +4823,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4844,7 +4847,7 @@
         <v>83</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4855,10 +4858,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4881,17 +4884,17 @@
         <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>83</v>
@@ -4940,7 +4943,7 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4955,19 +4958,19 @@
         <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>83</v>
@@ -4975,14 +4978,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -5001,17 +5004,17 @@
         <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
@@ -5060,7 +5063,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -5075,16 +5078,16 @@
         <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>83</v>
@@ -5095,14 +5098,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -5121,16 +5124,16 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5180,7 +5183,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -5195,16 +5198,16 @@
         <v>106</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>83</v>
@@ -5215,10 +5218,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5241,19 +5244,19 @@
         <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -5278,11 +5281,11 @@
         <v>83</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>83</v>
@@ -5300,7 +5303,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>94</v>
@@ -5315,19 +5318,19 @@
         <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>83</v>
@@ -5335,10 +5338,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5361,19 +5364,19 @@
         <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -5398,19 +5401,19 @@
         <v>83</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
@@ -5420,7 +5423,7 @@
         <v>121</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5444,10 +5447,10 @@
         <v>83</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>83</v>
@@ -5455,13 +5458,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>83</v>
@@ -5483,19 +5486,19 @@
         <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5520,13 +5523,13 @@
         <v>83</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>83</v>
@@ -5544,7 +5547,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5568,10 +5571,10 @@
         <v>83</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>83</v>
@@ -5579,10 +5582,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5697,10 +5700,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5817,10 +5820,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5843,19 +5846,19 @@
         <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>83</v>
@@ -5904,7 +5907,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5925,10 +5928,10 @@
         <v>83</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
@@ -5939,10 +5942,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6057,10 +6060,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6177,10 +6180,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6206,23 +6209,23 @@
         <v>136</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>83</v>
@@ -6264,7 +6267,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -6285,10 +6288,10 @@
         <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
@@ -6299,10 +6302,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6328,13 +6331,13 @@
         <v>108</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6384,7 +6387,7 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6405,10 +6408,10 @@
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -6419,10 +6422,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6445,24 +6448,24 @@
         <v>95</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>83</v>
@@ -6504,7 +6507,7 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6525,10 +6528,10 @@
         <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
@@ -6539,10 +6542,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6568,14 +6571,14 @@
         <v>108</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
@@ -6624,7 +6627,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6645,10 +6648,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6659,10 +6662,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6685,19 +6688,19 @@
         <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6746,7 +6749,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6767,10 +6770,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6781,10 +6784,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6810,16 +6813,16 @@
         <v>108</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
@@ -6868,7 +6871,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6889,10 +6892,10 @@
         <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
@@ -6903,14 +6906,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6929,19 +6932,19 @@
         <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -6966,13 +6969,13 @@
         <v>83</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>83</v>
@@ -6990,7 +6993,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>94</v>
@@ -7005,30 +7008,30 @@
         <v>106</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7143,10 +7146,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7263,10 +7266,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7289,19 +7292,19 @@
         <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -7338,7 +7341,7 @@
         <v>83</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
@@ -7348,7 +7351,7 @@
         <v>121</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7369,10 +7372,10 @@
         <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
@@ -7383,13 +7386,13 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>83</v>
@@ -7411,19 +7414,19 @@
         <v>95</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>83</v>
@@ -7472,7 +7475,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7493,10 +7496,10 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7507,10 +7510,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7625,10 +7628,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7745,10 +7748,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7774,23 +7777,23 @@
         <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>83</v>
@@ -7832,7 +7835,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7853,10 +7856,10 @@
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7867,10 +7870,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7896,13 +7899,13 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7952,7 +7955,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7973,10 +7976,10 @@
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7987,10 +7990,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8013,24 +8016,24 @@
         <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>83</v>
@@ -8072,7 +8075,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -8093,10 +8096,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -8107,10 +8110,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8136,14 +8139,14 @@
         <v>108</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -8192,7 +8195,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -8213,10 +8216,10 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -8227,10 +8230,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8253,19 +8256,19 @@
         <v>95</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -8314,7 +8317,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8335,10 +8338,10 @@
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -8349,10 +8352,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8378,16 +8381,16 @@
         <v>108</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -8436,7 +8439,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8457,10 +8460,10 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8471,10 +8474,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8497,19 +8500,19 @@
         <v>95</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8558,7 +8561,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8573,19 +8576,19 @@
         <v>106</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>83</v>
@@ -8593,10 +8596,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8619,16 +8622,16 @@
         <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8678,7 +8681,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8699,13 +8702,13 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>83</v>
@@ -8713,14 +8716,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8739,19 +8742,19 @@
         <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -8800,7 +8803,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8815,19 +8818,19 @@
         <v>106</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>83</v>
@@ -8835,14 +8838,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8861,19 +8864,19 @@
         <v>95</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -8922,7 +8925,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8931,25 +8934,25 @@
         <v>94</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>83</v>
@@ -8957,10 +8960,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8986,13 +8989,13 @@
         <v>130</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9042,7 +9045,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -9063,13 +9066,13 @@
         <v>83</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>83</v>
@@ -9077,10 +9080,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9103,17 +9106,17 @@
         <v>95</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -9162,7 +9165,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -9177,19 +9180,19 @@
         <v>106</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>83</v>
@@ -9197,10 +9200,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9223,19 +9226,19 @@
         <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
@@ -9272,17 +9275,17 @@
         <v>83</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9291,7 +9294,7 @@
         <v>94</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>106</v>
@@ -9300,30 +9303,30 @@
         <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>83</v>
@@ -9345,19 +9348,19 @@
         <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -9406,7 +9409,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9415,7 +9418,7 @@
         <v>94</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>106</v>
@@ -9424,27 +9427,27 @@
         <v>83</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9559,10 +9562,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9679,10 +9682,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9705,19 +9708,19 @@
         <v>95</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
@@ -9766,7 +9769,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9787,10 +9790,10 @@
         <v>83</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>
@@ -9801,10 +9804,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9827,23 +9830,23 @@
         <v>95</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q62" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>83</v>
@@ -9864,13 +9867,13 @@
         <v>83</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>83</v>
@@ -9888,7 +9891,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9909,10 +9912,10 @@
         <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
@@ -9923,10 +9926,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9952,14 +9955,14 @@
         <v>108</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
@@ -10008,7 +10011,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -10029,10 +10032,10 @@
         <v>83</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
@@ -10043,10 +10046,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10072,21 +10075,21 @@
         <v>136</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>83</v>
@@ -10128,7 +10131,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -10137,7 +10140,7 @@
         <v>94</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>106</v>
@@ -10149,10 +10152,10 @@
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -10163,10 +10166,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10189,19 +10192,19 @@
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>83</v>
@@ -10226,13 +10229,13 @@
         <v>83</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>83</v>
@@ -10250,7 +10253,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -10271,10 +10274,10 @@
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
@@ -10285,10 +10288,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10311,19 +10314,19 @@
         <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>83</v>
@@ -10348,13 +10351,13 @@
         <v>83</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>83</v>
@@ -10372,7 +10375,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10381,7 +10384,7 @@
         <v>94</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>106</v>
@@ -10393,10 +10396,10 @@
         <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -10407,14 +10410,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10433,19 +10436,19 @@
         <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>83</v>
@@ -10470,13 +10473,13 @@
         <v>83</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>83</v>
@@ -10494,7 +10497,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10512,27 +10515,27 @@
         <v>83</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10555,19 +10558,19 @@
         <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>83</v>
@@ -10616,7 +10619,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10637,10 +10640,10 @@
         <v>83</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>83</v>
@@ -10651,10 +10654,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10677,16 +10680,16 @@
         <v>83</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10712,13 +10715,13 @@
         <v>83</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>83</v>
@@ -10736,7 +10739,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10754,27 +10757,27 @@
         <v>83</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10797,19 +10800,19 @@
         <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>83</v>
@@ -10834,13 +10837,13 @@
         <v>83</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>83</v>
@@ -10858,7 +10861,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10879,10 +10882,10 @@
         <v>83</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
@@ -10893,10 +10896,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10919,16 +10922,16 @@
         <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10978,7 +10981,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10996,27 +10999,27 @@
         <v>83</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11039,16 +11042,16 @@
         <v>83</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11098,7 +11101,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -11116,27 +11119,27 @@
         <v>83</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11159,19 +11162,19 @@
         <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>83</v>
@@ -11220,7 +11223,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -11232,7 +11235,7 @@
         <v>83</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>83</v>
@@ -11241,10 +11244,10 @@
         <v>83</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
@@ -11255,10 +11258,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11373,10 +11376,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11493,14 +11496,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11522,16 +11525,16 @@
         <v>115</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>83</v>
@@ -11580,7 +11583,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11604,7 +11607,7 @@
         <v>83</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
@@ -11615,10 +11618,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11641,13 +11644,13 @@
         <v>83</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11698,7 +11701,7 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11707,7 +11710,7 @@
         <v>94</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>106</v>
@@ -11719,10 +11722,10 @@
         <v>83</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
@@ -11733,10 +11736,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11759,13 +11762,13 @@
         <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11816,7 +11819,7 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11825,7 +11828,7 @@
         <v>94</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>106</v>
@@ -11837,10 +11840,10 @@
         <v>83</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
@@ -11851,10 +11854,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11877,19 +11880,19 @@
         <v>83</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>83</v>
@@ -11914,13 +11917,13 @@
         <v>83</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>83</v>
@@ -11938,7 +11941,7 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -11956,13 +11959,13 @@
         <v>83</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>83</v>
@@ -11973,10 +11976,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11999,19 +12002,19 @@
         <v>83</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>83</v>
@@ -12036,13 +12039,13 @@
         <v>83</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>83</v>
@@ -12060,7 +12063,7 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -12078,13 +12081,13 @@
         <v>83</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>83</v>
@@ -12095,10 +12098,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12121,17 +12124,17 @@
         <v>83</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>83</v>
@@ -12180,7 +12183,7 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -12204,7 +12207,7 @@
         <v>83</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
@@ -12215,10 +12218,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12244,10 +12247,10 @@
         <v>108</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12298,7 +12301,7 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
@@ -12319,10 +12322,10 @@
         <v>83</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>83</v>
@@ -12333,10 +12336,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12359,16 +12362,16 @@
         <v>95</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12418,7 +12421,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12439,10 +12442,10 @@
         <v>83</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>83</v>
@@ -12453,10 +12456,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12479,16 +12482,16 @@
         <v>95</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12538,7 +12541,7 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12559,10 +12562,10 @@
         <v>83</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>83</v>
@@ -12573,10 +12576,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12599,19 +12602,19 @@
         <v>95</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>83</v>
@@ -12660,7 +12663,7 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12672,7 +12675,7 @@
         <v>83</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>83</v>
@@ -12681,10 +12684,10 @@
         <v>83</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>83</v>
@@ -12695,10 +12698,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12813,10 +12816,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12933,14 +12936,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12962,16 +12965,16 @@
         <v>115</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>83</v>
@@ -13020,7 +13023,7 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -13044,7 +13047,7 @@
         <v>83</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>83</v>
@@ -13055,10 +13058,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13081,19 +13084,19 @@
         <v>95</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>83</v>
@@ -13118,13 +13121,13 @@
         <v>83</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>83</v>
@@ -13142,7 +13145,7 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>94</v>
@@ -13160,16 +13163,16 @@
         <v>83</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>83</v>
@@ -13177,10 +13180,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13203,19 +13206,19 @@
         <v>95</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>83</v>
@@ -13240,13 +13243,13 @@
         <v>83</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>83</v>
@@ -13264,7 +13267,7 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -13273,7 +13276,7 @@
         <v>94</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>106</v>
@@ -13282,27 +13285,27 @@
         <v>83</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13325,19 +13328,19 @@
         <v>83</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>83</v>
@@ -13362,13 +13365,13 @@
         <v>83</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>83</v>
@@ -13386,7 +13389,7 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
@@ -13395,7 +13398,7 @@
         <v>94</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>106</v>
@@ -13407,10 +13410,10 @@
         <v>83</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>83</v>
@@ -13421,14 +13424,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13447,19 +13450,19 @@
         <v>83</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>83</v>
@@ -13484,13 +13487,13 @@
         <v>83</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>83</v>
@@ -13508,7 +13511,7 @@
         <v>83</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
@@ -13526,27 +13529,27 @@
         <v>83</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13572,16 +13575,16 @@
         <v>84</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>83</v>
@@ -13630,7 +13633,7 @@
         <v>83</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
@@ -13651,10 +13654,10 @@
         <v>83</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>83</v>
